--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,14 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yegana\Desktop\AI_ML_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF34CF6-00AC-49B2-AE49-E1ED4BECAA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65855810-3EC0-42A6-A6FB-7032944CE4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
     <sheet name="F1 score" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Performance!$B$4:$C$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Performance!$E$4:$E$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Performance!$B$4:$C$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Performance!$E$4:$E$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Performance!$F$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Performance!$F$4:$F$7</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Performance!$G$4:$G$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Performance!$F$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Performance!$F$4:$F$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Performance!$G$4:$G$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Performance!$B$4:$C$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Performance!$E$4:$E$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Performance!$F$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Performance!$F$4:$F$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Performance!$G$4:$G$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -223,7 +240,43 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -280,43 +333,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <font>
@@ -494,7 +511,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -577,87 +594,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Validation Loss</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Performance!$B$4:$C$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>SGD</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Adam</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>SGD</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Adam</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ResNet18</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>ResNet18</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>VGG16</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>VGG16</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Performance!$F$4:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.4799999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18770000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13489999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E60-4599-80F8-130D13909C8C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>Test Accuracy</c:v>
           </c:tx>
@@ -734,6 +672,57 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.4799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13489999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0CA-4AFE-8DAF-E77BD2739912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -749,10 +738,10 @@
       <c:catAx>
         <c:axId val="256536400"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -832,7 +821,7 @@
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="t"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3993,23 +3982,23 @@
     <tableColumn id="1" xr3:uid="{AE7DB5CE-F594-47CB-B066-0CA3CFDE90A3}" name="Model" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{2D7B9CE7-15C8-44CC-A332-DF9752E584FA}" name="Optimizer" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{0FECF09A-3B25-481D-84EE-3C830C1BB8CB}" name="Loss" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{37D6D098-3870-4205-8CB5-2DB1E556EBCA}" name="Accuracy F1" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{538CA967-18F9-4FC1-A025-3BCAC4161EFF}" name="Validation Loss" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{43DB1F21-4BD0-4019-8390-6BE248E8C2C7}" name="Test accuracy" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{37D6D098-3870-4205-8CB5-2DB1E556EBCA}" name="Accuracy F1" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{538CA967-18F9-4FC1-A025-3BCAC4161EFF}" name="Validation Loss" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{43DB1F21-4BD0-4019-8390-6BE248E8C2C7}" name="Test accuracy" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{813B600F-E2B7-4F9D-8BE5-998E0A3F8718}" name="Table2" displayName="Table2" ref="B3:F53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{813B600F-E2B7-4F9D-8BE5-998E0A3F8718}" name="Table2" displayName="Table2" ref="B3:F53" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B3:F53" xr:uid="{813B600F-E2B7-4F9D-8BE5-998E0A3F8718}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7B4B1D7-625F-4CB9-97BA-1F62A14119C2}" name="Epoch №" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9834604A-0B8B-4987-80F0-DD92BB2A7F83}" name="Resnet18SGD" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6F6790F8-4316-45AA-803C-4C5C8D20E73A}" name="ResNet18Adam" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{CFBC2CF1-FD87-481B-88D6-8BA18FF1E46A}" name="VGG16SGD" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6B8C3954-0753-40B1-A7FB-B668245DB470}" name="VGG16Adam" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A7B4B1D7-625F-4CB9-97BA-1F62A14119C2}" name="Epoch №" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9834604A-0B8B-4987-80F0-DD92BB2A7F83}" name="Resnet18SGD" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6F6790F8-4316-45AA-803C-4C5C8D20E73A}" name="ResNet18Adam" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{CFBC2CF1-FD87-481B-88D6-8BA18FF1E46A}" name="VGG16SGD" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6B8C3954-0753-40B1-A7FB-B668245DB470}" name="VGG16Adam" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4280,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4407,7 +4396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B6CA68-C792-40E8-B54B-53FB44C9DA57}">
   <dimension ref="B3:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
